--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -44,9 +44,6 @@
     <t>orgName</t>
   </si>
   <si>
-    <t xml:space="preserve">My self's &amp; Organization </t>
-  </si>
-  <si>
     <t>stateName</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Durga &amp; pur</t>
+  </si>
+  <si>
+    <t>My self's &amp; Organization2</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +475,13 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -489,16 +489,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="selfRegistration" sheetId="2" r:id="rId2"/>
+    <sheet name="selfRegWithDuplicateEmail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>TCID</t>
   </si>
@@ -63,16 +64,36 @@
   </si>
   <si>
     <t>My self's &amp; Organization2</t>
+  </si>
+  <si>
+    <t>selfRegWithDuplicateEmail</t>
+  </si>
+  <si>
+    <t>Org self registration with duplicate Email Address</t>
+  </si>
+  <si>
+    <t>duplicateEmail</t>
+  </si>
+  <si>
+    <t>Pghosh@ensim.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,14 +122,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
   </cols>
@@ -446,6 +470,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -455,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -504,4 +539,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>TCID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Pghosh@ensim.com</t>
+  </si>
+  <si>
+    <t>signupValidations</t>
+  </si>
+  <si>
+    <t>All validations are checking here</t>
   </si>
 </sst>
 </file>
@@ -435,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +484,17 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -545,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -75,31 +75,23 @@
     <t>duplicateEmail</t>
   </si>
   <si>
-    <t>Pghosh@ensim.com</t>
-  </si>
-  <si>
     <t>signupValidations</t>
   </si>
   <si>
     <t>All validations are checking here</t>
+  </si>
+  <si>
+    <t>ensimautotest@outlook.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,17 +120,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -489,10 +478,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -562,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,14 +566,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>TCID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>language</t>
   </si>
   <si>
-    <t>DUTCH</t>
-  </si>
-  <si>
     <t>cityName</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>ensimautotest@outlook.com</t>
+  </si>
+  <si>
+    <t>English (US)</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -467,21 +470,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -497,7 +500,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +508,7 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -530,20 +534,21 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -551,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -562,12 +567,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>curency</t>
+  </si>
+  <si>
+    <t>Euro</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +518,7 @@
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,8 +534,11 @@
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -544,6 +553,9 @@
       </c>
       <c r="E2" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testdata/SignUpTestCases.xlsx
+++ b/resources/testdata/SignUpTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -97,10 +97,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,14 +137,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -505,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -583,12 +594,15 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>